--- a/biology/Botanique/Pierre_Cormier/Pierre_Cormier.xlsx
+++ b/biology/Botanique/Pierre_Cormier/Pierre_Cormier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Pierre Cormier' est un cultivar de rosiers obtenu en 1926 par le rosiériste orléanais Eugène Turbat. Il est toujours commercialisé. Ce rosier porte le nom d'un des petits-fils de l'obtenteur et du fils aîné de sa fille Thérèse Cormier, née Turbat.[réf. nécessaire]
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit rosier polyantha présente des bouquets généreux et ronds de petites fleurs rouge sang au cœur plus clair[1]. Elles sont pleines et doubles (26-40 pétales) en forme de coupe. La floraison est bien remontante[2].
-Le buisson est peu élevé (de 40 cm jusqu'à 60 cm)[3] avec un feuillage foncé. Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers rigoureux.
-On peut admirer cette variété très florifère notamment à l'Europa-Rosarium de Sangerhausen et à la roseraie Jean-Dupont d'Orléans. Elle est parfaite pour les devants de massifs, les potées et les jardinières. Elle est légèrement parfumée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit rosier polyantha présente des bouquets généreux et ronds de petites fleurs rouge sang au cœur plus clair. Elles sont pleines et doubles (26-40 pétales) en forme de coupe. La floraison est bien remontante.
+Le buisson est peu élevé (de 40 cm jusqu'à 60 cm) avec un feuillage foncé. Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers rigoureux.
+On peut admirer cette variété très florifère notamment à l'Europa-Rosarium de Sangerhausen et à la roseraie Jean-Dupont d'Orléans. Elle est parfaite pour les devants de massifs, les potées et les jardinières. Elle est légèrement parfumée.
 </t>
         </is>
       </c>
